--- a/Labs/TermProject/CS133JS_TermProject_Rubric.xlsx
+++ b/Labs/TermProject/CS133JS_TermProject_Rubric.xlsx
@@ -1,32 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/birdb/Projects/CS133JS-CourseMaterials/Labs/TermProject/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\CS133JS-CourseMaterials\Labs\TermProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8DB650-6CA5-A94C-9976-19EEA6F58C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128B7D7B-F56D-4ACC-892E-00AC253AC611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21220" yWindow="3800" windowWidth="15360" windowHeight="18480" activeTab="1" xr2:uid="{9702CE45-50CE-F14F-802C-E5FE921247A2}"/>
+    <workbookView xWindow="12288" yWindow="4248" windowWidth="17556" windowHeight="11592" xr2:uid="{9702CE45-50CE-F14F-802C-E5FE921247A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Rubric" sheetId="1" r:id="rId1"/>
     <sheet name="Score" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
   <si>
     <t>Criteria</t>
   </si>
@@ -40,54 +51,9 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Part 1</t>
-  </si>
-  <si>
-    <t>Part 2</t>
-  </si>
-  <si>
-    <t>Developer’s name, date in comments in each file</t>
-  </si>
-  <si>
-    <t>Review of your code with completed "Prod." column</t>
-  </si>
-  <si>
-    <t>All Groups (A, B, and C)</t>
-  </si>
-  <si>
     <t>Style and best practices</t>
   </si>
   <si>
-    <t>Object exercises</t>
-  </si>
-  <si>
-    <t>Grading Rubric for Lab 7: Events</t>
-  </si>
-  <si>
-    <t>Web app I functionality</t>
-  </si>
-  <si>
-    <t>Web App I: Average Calculator, Cost Per Mile Calc, Temperature conversion</t>
-  </si>
-  <si>
-    <t>Web App II: : Multiple-choice quiz, true-false quiz, fill-in-the-blank quiz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">document.querySelector used </t>
-  </si>
-  <si>
-    <t>Web app II functionality</t>
-  </si>
-  <si>
-    <t>Click-event calls a function</t>
-  </si>
-  <si>
-    <t>Input elements and button for input</t>
-  </si>
-  <si>
-    <t>Event handler function</t>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
@@ -127,14 +93,14 @@
     <t>Developer’s name, date in comments</t>
   </si>
   <si>
-    <t>Code review--"Prod." filled in</t>
+    <t>Code review you got--"Prod." filled in</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -157,11 +123,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri (Body)_x0000_"/>
     </font>
     <font>
       <b/>
@@ -190,13 +151,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -511,174 +471,147 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3216228F-B421-8943-9C69-C9FAC1E7C520}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="3" max="3" width="22.83203125" customWidth="1"/>
-    <col min="6" max="6" width="16.83203125" customWidth="1"/>
+    <col min="1" max="1" width="31.09765625" customWidth="1"/>
+    <col min="2" max="2" width="2.19921875" customWidth="1"/>
+    <col min="3" max="3" width="7.796875" customWidth="1"/>
+    <col min="6" max="6" width="16.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A2" s="1"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>1</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>15</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6">
-        <v>10</v>
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D9">
+      <c r="C10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12">
         <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12">
-        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13">
-        <v>6</v>
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="B14" t="s">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="D14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="C16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
         <v>3</v>
       </c>
-      <c r="D21">
-        <f>SUM(D6:D19)</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>14</v>
+      <c r="C18">
+        <f>SUM(C5:C16)</f>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -691,23 +624,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14151F0F-FB94-6846-92DC-36F755BDEC5D}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="31.83203125" customWidth="1"/>
+    <col min="1" max="1" width="31.796875" customWidth="1"/>
     <col min="2" max="2" width="1.5" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" customWidth="1"/>
-    <col min="5" max="5" width="1.6640625" customWidth="1"/>
+    <col min="3" max="3" width="7.69921875" customWidth="1"/>
+    <col min="4" max="4" width="5.69921875" customWidth="1"/>
+    <col min="5" max="5" width="1.69921875" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -725,142 +658,140 @@
         <v>2</v>
       </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="5" t="s">
-        <v>20</v>
+      <c r="F3" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="4">
-        <v>15</v>
-      </c>
-      <c r="D5" s="4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>15</v>
+      </c>
+      <c r="D5">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="4">
-        <v>20</v>
-      </c>
-      <c r="D6" s="4">
-        <v>20</v>
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="4">
-        <v>20</v>
-      </c>
-      <c r="D7" s="4">
-        <v>20</v>
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="4">
-        <v>20</v>
-      </c>
-      <c r="D8" s="4">
-        <v>20</v>
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="4">
-        <v>20</v>
-      </c>
-      <c r="D9" s="4">
-        <v>20</v>
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="4">
-        <v>20</v>
-      </c>
-      <c r="D10" s="4">
-        <v>20</v>
+      <c r="A10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+        <v>15</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="4">
+        <v>17</v>
+      </c>
+      <c r="C12">
         <v>5</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="4">
-        <v>50</v>
-      </c>
-      <c r="D13" s="4">
-        <v>50</v>
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>60</v>
+      </c>
+      <c r="D13">
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="4">
-        <v>15</v>
-      </c>
-      <c r="D14" s="4">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>20</v>
+      </c>
+      <c r="D14">
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="4">
-        <v>10</v>
-      </c>
-      <c r="D15" s="4">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>20</v>
+      </c>
+      <c r="D15">
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="4">
+        <v>18</v>
+      </c>
+      <c r="C16">
         <v>5</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16">
         <v>5</v>
       </c>
     </row>
@@ -873,8 +804,8 @@
         <v>200</v>
       </c>
       <c r="D18">
-        <f>SUM(D10:D16)</f>
-        <v>105</v>
+        <f>SUM(D5:D16)</f>
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/Labs/TermProject/CS133JS_TermProject_Rubric.xlsx
+++ b/Labs/TermProject/CS133JS_TermProject_Rubric.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\CS133JS-CourseMaterials\Labs\TermProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128B7D7B-F56D-4ACC-892E-00AC253AC611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E2819A4-EF80-4090-AD24-825C6A12105E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12288" yWindow="4248" windowWidth="17556" windowHeight="11592" xr2:uid="{9702CE45-50CE-F14F-802C-E5FE921247A2}"/>
+    <workbookView xWindow="17112" yWindow="132" windowWidth="13440" windowHeight="16272" activeTab="1" xr2:uid="{9702CE45-50CE-F14F-802C-E5FE921247A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Rubric" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
   <si>
     <t>Criteria</t>
   </si>
@@ -94,6 +94,12 @@
   </si>
   <si>
     <t>Code review you got--"Prod." filled in</t>
+  </si>
+  <si>
+    <t>Here's the grade breakdown:</t>
+  </si>
+  <si>
+    <t>Excellent work, your project meets all the requirements and is well done!</t>
   </si>
 </sst>
 </file>
@@ -151,12 +157,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,7 +484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3216228F-B421-8943-9C69-C9FAC1E7C520}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -553,7 +564,7 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="4" t="s">
+      <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="C10">
@@ -622,10 +633,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14151F0F-FB94-6846-92DC-36F755BDEC5D}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -644,56 +655,59 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="1"/>
+      <c r="A2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="3" t="s">
+      <c r="E5" s="1"/>
+      <c r="F5" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2" t="s">
+    <row r="6" spans="1:6">
+      <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>15</v>
-      </c>
-      <c r="D5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>15</v>
-      </c>
-      <c r="D6">
-        <v>15</v>
-      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>15</v>
@@ -704,7 +718,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>15</v>
@@ -715,100 +729,127 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="C9">
-        <v>15</v>
-      </c>
-      <c r="D9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10">
-        <v>15</v>
-      </c>
-      <c r="D10">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="2" t="s">
+      <c r="C11">
+        <v>15</v>
+      </c>
+      <c r="D11">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13">
-        <v>60</v>
-      </c>
-      <c r="D13">
-        <v>60</v>
+      <c r="A13" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C14">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D14">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C15">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="D15">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C16">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D16">
-        <v>5</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>20</v>
+      </c>
+      <c r="D17">
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
         <v>3</v>
       </c>
-      <c r="C18">
-        <f>SUM(C5:C16)</f>
+      <c r="C20">
+        <f>SUM(C7:C18)</f>
         <v>200</v>
       </c>
-      <c r="D18">
-        <f>SUM(D5:D16)</f>
+      <c r="D20">
+        <f>SUM(D7:D18)</f>
         <v>200</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Labs/TermProject/CS133JS_TermProject_Rubric.xlsx
+++ b/Labs/TermProject/CS133JS_TermProject_Rubric.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\CS133JS-CourseMaterials\Labs\TermProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brian/Repos/CS133JS-CourseMaterials/Labs/TermProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E2819A4-EF80-4090-AD24-825C6A12105E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15DDE3B5-3A92-8F4D-B284-D5609BBAE9D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17112" yWindow="132" windowWidth="13440" windowHeight="16272" activeTab="1" xr2:uid="{9702CE45-50CE-F14F-802C-E5FE921247A2}"/>
+    <workbookView xWindow="12800" yWindow="600" windowWidth="13440" windowHeight="15420" activeTab="1" xr2:uid="{9702CE45-50CE-F14F-802C-E5FE921247A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Rubric" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
   <si>
     <t>Criteria</t>
   </si>
@@ -99,7 +99,10 @@
     <t>Here's the grade breakdown:</t>
   </si>
   <si>
-    <t>Excellent work, your project meets all the requirements and is well done!</t>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excellent work! Your project is well done and meets all the requirements. </t>
   </si>
 </sst>
 </file>
@@ -157,16 +160,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -186,9 +198,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -226,7 +238,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -332,7 +344,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -474,7 +486,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -488,12 +500,12 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="31.09765625" customWidth="1"/>
-    <col min="2" max="2" width="2.19921875" customWidth="1"/>
-    <col min="3" max="3" width="7.796875" customWidth="1"/>
-    <col min="6" max="6" width="16.796875" customWidth="1"/>
+    <col min="1" max="1" width="31.1640625" customWidth="1"/>
+    <col min="2" max="2" width="2.1640625" customWidth="1"/>
+    <col min="3" max="3" width="7.83203125" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -636,16 +648,16 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="31.796875" customWidth="1"/>
+    <col min="1" max="1" width="31.83203125" customWidth="1"/>
     <col min="2" max="2" width="1.5" customWidth="1"/>
-    <col min="3" max="3" width="7.69921875" customWidth="1"/>
-    <col min="4" max="4" width="5.69921875" customWidth="1"/>
-    <col min="5" max="5" width="1.69921875" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" customWidth="1"/>
+    <col min="5" max="5" width="1.33203125" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
   </cols>
   <sheetData>
@@ -654,60 +666,65 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="5"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+    <row r="2" spans="1:6" ht="37" customHeight="1">
+      <c r="A2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" ht="20" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>15</v>
+      </c>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <v>15</v>
@@ -715,10 +732,11 @@
       <c r="D7">
         <v>15</v>
       </c>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>15</v>
@@ -726,10 +744,11 @@
       <c r="D8">
         <v>15</v>
       </c>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>15</v>
@@ -737,10 +756,11 @@
       <c r="D9">
         <v>15</v>
       </c>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10">
         <v>15</v>
@@ -748,10 +768,11 @@
       <c r="D10">
         <v>15</v>
       </c>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11">
         <v>15</v>
@@ -759,48 +780,53 @@
       <c r="D11">
         <v>15</v>
       </c>
+      <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12">
-        <v>15</v>
-      </c>
-      <c r="D12">
-        <v>15</v>
-      </c>
+      <c r="A12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="D14">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D15">
-        <v>60</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C16">
         <v>20</v>
@@ -808,47 +834,53 @@
       <c r="D16">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <f>SUM(C6:C17)</f>
+        <v>200</v>
+      </c>
+      <c r="D19">
+        <f>SUM(D6:D18)</f>
+        <v>200</v>
+      </c>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="D17">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18">
-        <v>5</v>
-      </c>
-      <c r="D18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20">
-        <f>SUM(C7:C18)</f>
-        <v>200</v>
-      </c>
-      <c r="D20">
-        <f>SUM(D7:D18)</f>
-        <v>200</v>
-      </c>
+      <c r="D20" s="5">
+        <f>D19/C19</f>
+        <v>1</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A3:F3"/>
     <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="D20:F20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
